--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/0.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/0.xlsx
@@ -479,13 +479,13 @@
         <v>-16.12213587338558</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.753516393817142</v>
+        <v>-8.780931675967716</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.927363075431991</v>
+        <v>-2.922676031014653</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.336687198183472</v>
+        <v>-5.337642936290918</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-15.88127131520538</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.014131774184541</v>
+        <v>-9.043628732486949</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.989158744844937</v>
+        <v>-2.98151283998537</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.256745597031893</v>
+        <v>-5.258643980943943</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-15.60155082846407</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.837938745894469</v>
+        <v>-9.867697550253713</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.864258175734871</v>
+        <v>-2.855159025259872</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.122745877446826</v>
+        <v>-5.124526430633301</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-15.29304962904581</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.61446941204293</v>
+        <v>-10.64243457091285</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.789684418748399</v>
+        <v>-2.783413205687213</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.347435978816529</v>
+        <v>-5.347763286387572</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-14.94236281859554</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.39928750589019</v>
+        <v>-11.42822149517041</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.637486398213334</v>
+        <v>-2.632341123196535</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.89802959147144</v>
+        <v>-4.898631837402159</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-14.55600601626385</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.07994323832869</v>
+        <v>-12.10885104300322</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.621919650134521</v>
+        <v>-2.617939590070637</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.011618410926255</v>
+        <v>-5.010034242282407</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-14.14721113168352</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.59346263268971</v>
+        <v>-12.62400697521946</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.497765342286433</v>
+        <v>-2.493850743736757</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.570905312668073</v>
+        <v>-4.56709545254113</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-13.74365278740791</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.55191084682395</v>
+        <v>-13.58193149724003</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.237843853969645</v>
+        <v>-2.231873763873818</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.481733638013076</v>
+        <v>-4.47645743996786</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-13.37704283472205</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.30556925990792</v>
+        <v>-14.33562918723252</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.21057258715033</v>
+        <v>-2.207744649736517</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.074563019635396</v>
+        <v>-4.067728837552014</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-13.07938512770512</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.98368508559512</v>
+        <v>-15.01225249039576</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.046342740303718</v>
+        <v>-2.043292233741596</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.86608118918375</v>
+        <v>-3.860215837510657</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-12.87949421641912</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.62787875461941</v>
+        <v>-15.65579154427797</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.055690644532711</v>
+        <v>-2.053857722134869</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.36023388428798</v>
+        <v>-3.354420901826253</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-12.79182880536638</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.58579018433714</v>
+        <v>-16.61481581973724</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.872385312445704</v>
+        <v>-1.869439544306316</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.717375630153546</v>
+        <v>-2.711471001571928</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-12.81212796464903</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.21643331992024</v>
+        <v>-17.24208114118718</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.618892144824204</v>
+        <v>-1.61552742299388</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.337646478532123</v>
+        <v>-2.331296711653886</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-12.91119658399058</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.11304658773301</v>
+        <v>-18.13852420906301</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.465895493815793</v>
+        <v>-1.465345617096441</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.767241028323802</v>
+        <v>-1.763562091225277</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-13.04352723018021</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.00769601011952</v>
+        <v>-19.03255829321595</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.308997336560548</v>
+        <v>-1.308499829052562</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.366695115184035</v>
+        <v>-1.358329133668172</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-13.15774787728369</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.79569553355732</v>
+        <v>-19.82219435450898</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.06985333285358</v>
+        <v>-1.071306578469011</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.8500859373523657</v>
+        <v>-0.8408689561517906</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-13.20807672153664</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.75567554712405</v>
+        <v>-20.78018433804376</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.978874920406425</v>
+        <v>-0.982894257378835</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.4814983354492517</v>
+        <v>-0.4736036768356909</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-13.16107498199292</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.59002182262157</v>
+        <v>-21.6149757518379</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.82311579349841</v>
+        <v>-0.8281039608811076</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1130678411802384</v>
+        <v>-0.1026987373295914</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-12.99778851644903</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.22879527826938</v>
+        <v>-22.25348736142887</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5706831024070896</v>
+        <v>-0.5751475776761182</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2722910006631267</v>
+        <v>0.2803034900022631</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-12.71815306177959</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.85781496830011</v>
+        <v>-22.88173460559194</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2699921830411671</v>
+        <v>-0.2745090275215625</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6053722772594796</v>
+        <v>0.6146154430657382</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-12.3392351869718</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.49402233259094</v>
+        <v>-23.51897626180727</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0296960566841268</v>
+        <v>-0.03735505384653656</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5995069255863863</v>
+        <v>0.6099283986484003</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-11.89095987905007</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.98557284278355</v>
+        <v>-24.0076464653747</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07445321242180407</v>
+        <v>0.06562900030648069</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8687108566179578</v>
+        <v>0.8807295906266622</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-11.4056990631818</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.34980070784037</v>
+        <v>-24.37297408387023</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04955165241684109</v>
+        <v>0.04269128572777663</v>
       </c>
       <c r="G24" t="n">
-        <v>0.806470048908392</v>
+        <v>0.8176639678380678</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.9146459492075</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.63527837130421</v>
+        <v>-24.65782331679766</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3337200855965054</v>
+        <v>0.3270168265415416</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7817517811432132</v>
+        <v>0.7918852235427092</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-10.44821576413107</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.64653775174809</v>
+        <v>-24.66810077452842</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3463672501416128</v>
+        <v>0.3406197291940951</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6406822180236148</v>
+        <v>0.652570029003902</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.03345060976103</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.58442786706694</v>
+        <v>-24.60481258259151</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1617788723761169</v>
+        <v>0.1547613980529518</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6086060760613859</v>
+        <v>0.6204807947388314</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-9.690454704544328</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.6989724246292</v>
+        <v>-24.71827047901791</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2958440534753919</v>
+        <v>0.2899263325909317</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3075223876102116</v>
+        <v>0.3192923678649233</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-9.430457559805955</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.72664955283661</v>
+        <v>-24.74668077618445</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2709163088647454</v>
+        <v>0.2668707872866521</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1915638613410438</v>
+        <v>0.2032421954758634</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.254658140953527</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.52485788913709</v>
+        <v>-24.54394646668032</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1202239031564784</v>
+        <v>0.1148560589913707</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.004715942862113464</v>
+        <v>0.008140698528461535</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.153663257042288</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.04685791238567</v>
+        <v>-24.06721644330456</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1253953627789602</v>
+        <v>0.1209308875099316</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.4927446235902944</v>
+        <v>-0.4827028273106905</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.11290514537192</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.10142663062998</v>
+        <v>-24.12076396192721</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1754996057542459</v>
+        <v>0.1711398689079511</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.6005073682805416</v>
+        <v>-0.5914474947140672</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.119675096830361</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.70136513269536</v>
+        <v>-23.72231281724212</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1049713703458675</v>
+        <v>0.1011876948246087</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.089740540870161</v>
+        <v>-1.082998004906673</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.16313879767478</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.13431131201452</v>
+        <v>-23.1527845513242</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.03988186829498969</v>
+        <v>-0.04157077536157235</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.171816187384942</v>
+        <v>-1.164510682399259</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.231283825300279</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.77576550639101</v>
+        <v>-22.79219634645738</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2376672873249454</v>
+        <v>-0.2398144249909885</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.21245469540566</v>
+        <v>-1.207924758622423</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.307769449097435</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.06061155596457</v>
+        <v>-22.07557605811266</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.3554718282947966</v>
+        <v>-0.357841535109149</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.42589850863432</v>
+        <v>-1.418828665099788</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-9.373292015426593</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.26158831353403</v>
+        <v>-21.27869995334816</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.2918563287868496</v>
+        <v>-0.2940427433614178</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.543257911307552</v>
+        <v>-1.534682452946222</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-9.41227031170021</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.89125943535296</v>
+        <v>-20.90746770627102</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.3664562703790047</v>
+        <v>-0.3705410688656233</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.79840070908711</v>
+        <v>-1.789406297034844</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-9.415663320202937</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.23605513963878</v>
+        <v>-20.25179208765454</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2050019917348389</v>
+        <v>-0.2095581131237595</v>
       </c>
       <c r="G39" t="n">
-        <v>-1.954762081925844</v>
+        <v>-1.945898592901996</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-9.38264992247384</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.91229558266574</v>
+        <v>-19.92468090115401</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.4798879821997194</v>
+        <v>-0.4831610579101509</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.175066261843569</v>
+        <v>-2.166019480579936</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-9.315742892994699</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.39212529846112</v>
+        <v>-19.40542707814831</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.1948423647296594</v>
+        <v>-0.1987438709764938</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.018992919667352</v>
+        <v>-2.011779060801561</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.219113558784629</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.80319423973176</v>
+        <v>-18.81543554288877</v>
       </c>
       <c r="F42" t="n">
-        <v>0.04308405481302841</v>
+        <v>0.03816134894453941</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.024583332980769</v>
+        <v>-2.022527841434619</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-9.095764205708788</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.90781164838611</v>
+        <v>-17.92191205854665</v>
       </c>
       <c r="F43" t="n">
-        <v>0.05067759046122953</v>
+        <v>0.04799366837867568</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.911020698131638</v>
+        <v>-1.912054990056134</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.949373502362208</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.56493732926414</v>
+        <v>-17.57737501696379</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08080297930004121</v>
+        <v>0.07701930377878238</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.104328549589723</v>
+        <v>-2.104983164731809</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.784750374437065</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.02761612833687</v>
+        <v>-17.03887550878075</v>
       </c>
       <c r="F45" t="n">
-        <v>0.04908032951453895</v>
+        <v>0.04614765367799231</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.157378560704397</v>
+        <v>-2.159237667707922</v>
       </c>
     </row>
     <row r="46">
@@ -1491,10 +1491,10 @@
         <v>-8.609323453868178</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.62892932220062</v>
+        <v>-16.63639193482041</v>
       </c>
       <c r="F46" t="n">
-        <v>0.08621010037367408</v>
+        <v>0.08504488542076045</v>
       </c>
       <c r="G46" t="n">
         <v>-2.101552981387277</v>
@@ -1514,13 +1514,13 @@
         <v>-8.434914488128994</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.99857421728004</v>
+        <v>-16.00718895254989</v>
       </c>
       <c r="F47" t="n">
-        <v>0.09780988069144338</v>
+        <v>0.0977706037829182</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.405242038103955</v>
+        <v>-2.408947159808164</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.273418368822686</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.34343538308006</v>
+        <v>-15.35055759582596</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08640648491629997</v>
+        <v>0.08704800775554455</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.335276771717771</v>
+        <v>-2.338471293611152</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.133913138401521</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.80034047659958</v>
+        <v>-14.80699136644318</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2187042051319419</v>
+        <v>0.2177746516301793</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.541873310560208</v>
+        <v>-2.545696262989992</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.021362180929545</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.1308262938794</v>
+        <v>-14.13585373817062</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3705487334902808</v>
+        <v>0.3680219190418277</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.485196731558376</v>
+        <v>-2.494898127964095</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.940280226044738</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.34920272192551</v>
+        <v>-13.35169025946544</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3546677701432671</v>
+        <v>0.3532668937392024</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.553525460089344</v>
+        <v>-2.562676979775711</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.892094484531297</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.74281962350812</v>
+        <v>-12.74321239259338</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4428967989936591</v>
+        <v>0.4403045230309973</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.559063504191395</v>
+        <v>-2.567481854918624</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.875725338488293</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.11373447196319</v>
+        <v>-12.11501751764168</v>
       </c>
       <c r="F53" t="n">
-        <v>0.495043441212254</v>
+        <v>0.4934985494769303</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.589332908361465</v>
+        <v>-2.599571089183695</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.888645270623061</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.7279304918232</v>
+        <v>-11.72951466046705</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3914702334313591</v>
+        <v>0.3896242187306757</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.690588778539375</v>
+        <v>-2.700499651790561</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.927582004377716</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.27065563047024</v>
+        <v>-11.2702366767793</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1309464991838521</v>
+        <v>0.1290088383632766</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.168222170811225</v>
+        <v>-3.182414227091656</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.988582568983936</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.85659846079781</v>
+        <v>-10.85730544515126</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2199479739019059</v>
+        <v>0.2179186669614383</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.240596420920287</v>
+        <v>-3.25609770748489</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.066883227833749</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.09298989755414</v>
+        <v>-10.09275423610298</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1795451273323392</v>
+        <v>0.1770837743980947</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.591470137078546</v>
+        <v>-3.609432776577393</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.159415402056453</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.792351347399579</v>
+        <v>-9.79227279358253</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.000264559895926601</v>
+        <v>-0.002058205385243072</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.624567478662429</v>
+        <v>-3.638615519611601</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.264041713657832</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.227064987602374</v>
+        <v>-9.223922834920359</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08970574523241494</v>
+        <v>0.08563403904863813</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.903472806099719</v>
+        <v>-3.918934815755798</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.382354307370765</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.891915127157027</v>
+        <v>-8.888890805200589</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.04840495744495336</v>
+        <v>-0.05145546400707553</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.829239448987133</v>
+        <v>-3.843601705204506</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.516608120075311</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.359006032287409</v>
+        <v>-8.354161880235971</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.07156524117196676</v>
+        <v>-0.07502160912218245</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.230361423451936</v>
+        <v>-4.246726802004093</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.668293051286531</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.870780967016603</v>
+        <v>-7.867520983609013</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.0244722278502781</v>
+        <v>-0.02888433390793979</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.194305221425823</v>
+        <v>-4.208732939157405</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.838105779953255</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.387753545973961</v>
+        <v>-7.387766638276803</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.05406083227257902</v>
+        <v>-0.05649600060114007</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.194750359722441</v>
+        <v>-4.208916231397189</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.026485596450659</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.060642359473436</v>
+        <v>-7.058469037201709</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2220219854290827</v>
+        <v>-0.2250593996883632</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.425908058695956</v>
+        <v>-4.436722300843222</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.233516892812631</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.672324657187841</v>
+        <v>-6.671447472897444</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.176369125419984</v>
+        <v>-0.1788828475655954</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.699707388024974</v>
+        <v>-4.709893199635837</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.457913248432236</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.421240473289218</v>
+        <v>-6.420468027421556</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.2847995775551592</v>
+        <v>-0.2861873616563822</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.681286517926665</v>
+        <v>-4.69088317590965</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.698903070297924</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.27297014360667</v>
+        <v>-6.271739467139548</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.3458228011004444</v>
+        <v>-0.3482056002176386</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.776349728860438</v>
+        <v>-4.785304864004178</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.954039652542615</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.999393383425963</v>
+        <v>-5.997822307084955</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3118482752261653</v>
+        <v>-0.3116387983806977</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.7916808154881</v>
+        <v>-4.800125350821013</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.21943072281305</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.859907988950213</v>
+        <v>-5.858166712672263</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.5606413061274858</v>
+        <v>-0.5625265977366943</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.874332523327916</v>
+        <v>-4.881376182256765</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.48835961219234</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.647917421336984</v>
+        <v>-5.649475405375149</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5142945540677755</v>
+        <v>-0.5154728613235309</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.720759810994469</v>
+        <v>-4.726350224307886</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.75288276417476</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.526970727685119</v>
+        <v>-5.528947665414219</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.5924163251243549</v>
+        <v>-0.5921675713703621</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.688055238495838</v>
+        <v>-4.694274082345657</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-11.00500369764276</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.529995049641557</v>
+        <v>-5.534092940431018</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7007551311396382</v>
+        <v>-0.7024178536005373</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.583159708127928</v>
+        <v>-4.586079291661633</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-11.23655509791739</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.571170342078786</v>
+        <v>-5.577795047316699</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.7388668247119028</v>
+        <v>-0.7384478710209675</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.380137367961282</v>
+        <v>-4.38156442897103</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-11.44035553721721</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.814438421180898</v>
+        <v>-5.820552526607984</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.6333952330189575</v>
+        <v>-0.6323478487916194</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.256035429324561</v>
+        <v>-4.25671622907233</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-11.61029713173689</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.02547325068668</v>
+        <v>-6.032516909615529</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.9654422176908141</v>
+        <v>-0.9653112946623968</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.080533109731222</v>
+        <v>-4.083230124116619</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-11.74225840706525</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.531739509273386</v>
+        <v>-6.53602069230263</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.8918372911146302</v>
+        <v>-0.892609736982292</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.918882446544431</v>
+        <v>-3.920060753800186</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-11.83407894736123</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.987731324947863</v>
+        <v>-6.992588569302144</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.9529521607798074</v>
+        <v>-0.9532794683508505</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.843811182049974</v>
+        <v>-3.845722658264866</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-11.88525338647954</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.559616205377299</v>
+        <v>-7.566175449101004</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.013556430634157</v>
+        <v>-1.012312661864193</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.464500984119486</v>
+        <v>-3.467787152132759</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-11.89602639204781</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.979970772716598</v>
+        <v>-7.987263185399439</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.9784559667154898</v>
+        <v>-0.9757851369357776</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.2619368745523</v>
+        <v>-3.267108334174782</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-11.86692394871033</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.455273735082621</v>
+        <v>-8.462356670919995</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.178925307827999</v>
+        <v>-1.179252615399043</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.888452751386381</v>
+        <v>-2.89307433428951</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-11.79964929081142</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.386450682397546</v>
+        <v>-9.38973685041082</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.100698798348686</v>
+        <v>-1.09982161405829</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.876604217314619</v>
+        <v>-2.882246999839403</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-11.69708182554032</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.19082867669036</v>
+        <v>-10.19296272205356</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.192947164171488</v>
+        <v>-1.192318733635085</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.688088148696605</v>
+        <v>-2.693704746615706</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-11.56345534152007</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.02377407578381</v>
+        <v>-11.02390499881223</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.291767866020836</v>
+        <v>-1.292265373528822</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.326648944145073</v>
+        <v>-2.332134619035757</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-11.40462312901141</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.2308058439739</v>
+        <v>-12.22996793659203</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.37712968054889</v>
+        <v>-1.377208234365941</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.200622436990618</v>
+        <v>-2.204929804625546</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-11.22802296721188</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.10531930458984</v>
+        <v>-13.10467778175059</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.467990262270469</v>
+        <v>-1.467244001008491</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.860379670739841</v>
+        <v>-1.865459484242431</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-11.04237408087593</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.29531798678284</v>
+        <v>-14.29162595738148</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.656820546156684</v>
+        <v>-1.65519710060431</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.614152731195499</v>
+        <v>-1.618316083499168</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-10.85489373337226</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.38101029223582</v>
+        <v>-15.37594357103607</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.70874461922697</v>
+        <v>-1.706977158343337</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.201260776475984</v>
+        <v>-1.205895451681955</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-10.67105312926939</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.76508927175458</v>
+        <v>-16.75928938159569</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.707527035062689</v>
+        <v>-1.703468421181754</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.8836807864442348</v>
+        <v>-0.88667892379499</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-10.49336611328481</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.44576127984979</v>
+        <v>-18.43613843726112</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.949145484006744</v>
+        <v>-1.944969039400233</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.6771366168131643</v>
+        <v>-0.6822949841328044</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-10.32293392888379</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.04277347278638</v>
+        <v>-20.0301655851498</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.162510743418354</v>
+        <v>-2.157129806950404</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.3742985597811986</v>
+        <v>-0.3789856041985366</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-10.16081435068565</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.87102191851353</v>
+        <v>-21.85778560034055</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.35787408642259</v>
+        <v>-2.351026812036368</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.5203824748891781</v>
+        <v>-0.5234329814513002</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-10.00897878497878</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.57565284080911</v>
+        <v>-23.5598373389763</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.450096267639708</v>
+        <v>-2.441952855272155</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.3411881258944734</v>
+        <v>-0.3432043405320993</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-9.86998336698181</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.64423668980183</v>
+        <v>-25.62918054153384</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.632943369127255</v>
+        <v>-2.624341726160241</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.3428770329610561</v>
+        <v>-0.3438982325827107</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-9.745502924663429</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.88308593725119</v>
+        <v>-27.8651102054495</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.507126338818267</v>
+        <v>-2.498184295977368</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.4706186317877774</v>
+        <v>-0.4703436934281011</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.638233805385861</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.17332247335434</v>
+        <v>-30.15405060357131</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.999881340872311</v>
+        <v>-2.989145652542096</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.8365615885168627</v>
+        <v>-0.8342573432167188</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.547593962250122</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.3545001267859</v>
+        <v>-32.33614471820179</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.067319792810042</v>
+        <v>-3.056584104479827</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.074749854116385</v>
+        <v>-1.074213069699874</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.473116191116864</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.57816230293886</v>
+        <v>-34.55951886369224</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.43707260966607</v>
+        <v>-3.422723445751538</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.29331275775616</v>
+        <v>-1.288979205515549</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.409882749387149</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.09887573826775</v>
+        <v>-37.07919800709664</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.707337017227821</v>
+        <v>-3.693092591736023</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.70510495903697</v>
+        <v>-1.701216545092977</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-9.354782596831399</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.63371576836285</v>
+        <v>-39.61309539138714</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.635132967055702</v>
+        <v>-3.623114233046997</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.177056291875511</v>
+        <v>-2.169816248404037</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-9.298744819961605</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.20516187720343</v>
+        <v>-42.18332391606344</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.810962594220083</v>
+        <v>-3.798891491000012</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.525756685762043</v>
+        <v>-2.518254796233734</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-9.236921764585045</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.48157294150571</v>
+        <v>-44.46210468718007</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.07588534222241</v>
+        <v>-4.061811116667554</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.113836744806695</v>
+        <v>-3.10287848732817</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-9.149781324392313</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.82229339736655</v>
+        <v>-46.80334883515457</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.230806561748555</v>
+        <v>-4.215645675057836</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.42273653805438</v>
+        <v>-3.415849986759632</v>
       </c>
     </row>
   </sheetData>
